--- a/colloidal_parameters/data/data_for_modeling.xlsx
+++ b/colloidal_parameters/data/data_for_modeling.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>$d_{av, n}$</t>
+          <t>$d_{ср, n}$</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>$(\frac{PDI}{d_{av}})_{n}$</t>
+          <t>$(\frac{PDI}{d_{ср}})_{n}$</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>$(\frac{d_{av}}{ζ})_{n}$</t>
+          <t>$(\frac{d_{ср}}{ζ})_{n}$</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -511,47 +511,47 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^{-1})_{n}$</t>
+          <t>$(d_{ср}^{-1})_{n}$</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^2)_{n}$</t>
+          <t>$(d_{ср}^2)_{n}$</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^{-2})_{n}$</t>
+          <t>$(d_{ср}^{-2})_{n}$</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^3)_{n}$</t>
+          <t>$(d_{ср}^3)_{n}$</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^{-3})_{n}$</t>
+          <t>$(d_{ср}^{-3})_{n}$</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^4)_{n}$</t>
+          <t>$(d_{ср}^4)_{n}$</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^{-4})_{n}$</t>
+          <t>$(d_{ср}^{-4})_{n}$</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^5)_{n}$</t>
+          <t>$(d_{ср}^5)_{n}$</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>$(d_{av}^{-5})_{n}$</t>
+          <t>$(d_{ср}^{-5})_{n}$</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>$(ln|d_{av}|)_{n}$</t>
+          <t>$(ln|d_{ср}|)_{n}$</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
